--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-desired-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="901">
   <si>
     <t>anchor score</t>
   </si>
@@ -304,499 +304,499 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>cuts</t>
+  </si>
+  <si>
+    <t>greed</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>warned</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>fda</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>unemployment</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>hardship</t>
+  </si>
+  <si>
+    <t>limited</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>become</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>cuts</t>
-  </si>
-  <si>
-    <t>greed</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>warned</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>fda</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>unemployment</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>problems</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>hardship</t>
-  </si>
-  <si>
-    <t>limited</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>social</t>
@@ -3085,7 +3085,7 @@
         <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3143,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.03146333355760948</v>
+        <v>0.03195604345724739</v>
       </c>
       <c r="C3">
         <v>232</v>
@@ -3164,28 +3164,28 @@
         <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="K3">
-        <v>0.005297432378965059</v>
+        <v>0.008577691365522869</v>
       </c>
       <c r="L3">
-        <v>719</v>
+        <v>222</v>
       </c>
       <c r="M3">
-        <v>749</v>
+        <v>222</v>
       </c>
       <c r="N3">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2358</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3193,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01786245350754715</v>
+        <v>0.018142176177711</v>
       </c>
       <c r="C4">
         <v>225</v>
@@ -3214,28 +3214,28 @@
         <v>289</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>137</v>
+        <v>260</v>
       </c>
       <c r="K4">
-        <v>0.004426308402695513</v>
+        <v>0.007550194716149242</v>
       </c>
       <c r="L4">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="M4">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>292</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3243,7 +3243,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01273363920291124</v>
+        <v>0.01293304560345059</v>
       </c>
       <c r="C5">
         <v>38</v>
@@ -3264,28 +3264,28 @@
         <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K5">
-        <v>0.004194628671805031</v>
+        <v>0.005297432378965059</v>
       </c>
       <c r="L5">
-        <v>288</v>
+        <v>719</v>
       </c>
       <c r="M5">
-        <v>295</v>
+        <v>749</v>
       </c>
       <c r="N5">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O5">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P5" t="b">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>88</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3293,7 +3293,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01168518873031535</v>
+        <v>0.01186817659318824</v>
       </c>
       <c r="C6">
         <v>32</v>
@@ -3314,28 +3314,28 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="K6">
-        <v>0.00411129856476097</v>
+        <v>0.004426308402695513</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>192</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>179</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3343,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01150115850897715</v>
+        <v>0.01168126449311586</v>
       </c>
       <c r="C7">
         <v>31</v>
@@ -3364,28 +3364,28 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="K7">
-        <v>0.003756461834122422</v>
+        <v>0.004194628671805031</v>
       </c>
       <c r="L7">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="M7">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="N7">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O7">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3393,7 +3393,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01032834523831326</v>
+        <v>0.01049008518670358</v>
       </c>
       <c r="C8">
         <v>25</v>
@@ -3414,28 +3414,28 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="K8">
-        <v>0.003554429504466679</v>
+        <v>0.00411129856476097</v>
       </c>
       <c r="L8">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="M8">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="N8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>13</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3443,7 +3443,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.00968884665573636</v>
+        <v>0.009840572176320951</v>
       </c>
       <c r="C9">
         <v>22</v>
@@ -3464,28 +3464,28 @@
         <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="K9">
-        <v>0.003454181699836636</v>
+        <v>0.003756461834122422</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3493,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.009466084771641448</v>
+        <v>0.00961432188292082</v>
       </c>
       <c r="C10">
         <v>21</v>
@@ -3514,28 +3514,28 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>263</v>
+        <v>147</v>
       </c>
       <c r="K10">
-        <v>0.003405869086926032</v>
+        <v>0.003554429504466679</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>56</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3543,7 +3543,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.00923795281918189</v>
+        <v>0.009382617426893109</v>
       </c>
       <c r="C11">
         <v>20</v>
@@ -3564,28 +3564,28 @@
         <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="K11">
-        <v>0.00339574026675447</v>
+        <v>0.003454181699836636</v>
       </c>
       <c r="L11">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>249</v>
+        <v>36</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>652</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3593,7 +3593,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.009004042629561407</v>
+        <v>0.009145044247594779</v>
       </c>
       <c r="C12">
         <v>19</v>
@@ -3614,28 +3614,28 @@
         <v>58</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="K12">
-        <v>0.00339444942365861</v>
+        <v>0.003405869086926032</v>
       </c>
       <c r="L12">
-        <v>474</v>
+        <v>35</v>
       </c>
       <c r="M12">
-        <v>505</v>
+        <v>35</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1638</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3643,7 +3643,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.008763891547736515</v>
+        <v>0.008901132444891179</v>
       </c>
       <c r="C13">
         <v>18</v>
@@ -3664,28 +3664,28 @@
         <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13">
-        <v>0.003252029641692871</v>
+        <v>0.00339574026675447</v>
       </c>
       <c r="L13">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M13">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="N13">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O13">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>642</v>
+        <v>652</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3693,7 +3693,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.008516971671082159</v>
+        <v>0.008650345849301201</v>
       </c>
       <c r="C14">
         <v>17</v>
@@ -3714,28 +3714,28 @@
         <v>34</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>264</v>
+        <v>80</v>
       </c>
       <c r="K14">
-        <v>0.003153222057870107</v>
+        <v>0.00339444942365861</v>
       </c>
       <c r="L14">
-        <v>30</v>
+        <v>474</v>
       </c>
       <c r="M14">
-        <v>30</v>
+        <v>505</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -3743,7 +3743,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00826267619065061</v>
+        <v>0.008392068149362861</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -3764,28 +3764,28 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>265</v>
+        <v>94</v>
       </c>
       <c r="K15">
-        <v>0.003100222954568048</v>
+        <v>0.003252029641692871</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="M15">
-        <v>29</v>
+        <v>252</v>
       </c>
       <c r="N15">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>642</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -3793,7 +3793,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.008000301820373588</v>
+        <v>0.008125585045680015</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -3814,16 +3814,16 @@
         <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K16">
-        <v>0.003100222954568048</v>
+        <v>0.003153222057870107</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -3843,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.008000301820373588</v>
+        <v>0.008125585045680015</v>
       </c>
       <c r="C17">
         <v>15</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K17">
-        <v>0.003046301920332699</v>
+        <v>0.003100222954568048</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>253</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -3893,7 +3893,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.008000301820373588</v>
+        <v>0.008125585045680015</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -3914,28 +3914,28 @@
         <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>134</v>
+        <v>266</v>
       </c>
       <c r="K18">
-        <v>0.002917401711627184</v>
+        <v>0.003100222954568048</v>
       </c>
       <c r="L18">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="N18">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>3031</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -3943,7 +3943,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007729025850817257</v>
+        <v>0.007850060945343467</v>
       </c>
       <c r="C19">
         <v>14</v>
@@ -3964,16 +3964,16 @@
         <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K19">
-        <v>0.002878484749863863</v>
+        <v>0.003046301920332699</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>88</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -3993,7 +3993,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.00744787566948656</v>
+        <v>0.007564508004928996</v>
       </c>
       <c r="C20">
         <v>13</v>
@@ -4014,28 +4014,28 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="K20">
-        <v>0.002820327547819734</v>
+        <v>0.002917401711627184</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>170</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4043,7 +4043,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.00744787566948656</v>
+        <v>0.007564508004928996</v>
       </c>
       <c r="C21">
         <v>13</v>
@@ -4064,16 +4064,16 @@
         <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K21">
-        <v>0.002760945580554409</v>
+        <v>0.002878484749863863</v>
       </c>
       <c r="L21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>59</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4093,7 +4093,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.00744787566948656</v>
+        <v>0.007564508004928996</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -4114,16 +4114,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K22">
-        <v>0.002638174850605436</v>
+        <v>0.002820327547819734</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4143,7 +4143,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.007155687484348262</v>
+        <v>0.007267744207638498</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -4164,16 +4164,16 @@
         <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K23">
-        <v>0.002638174850605436</v>
+        <v>0.002760945580554409</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>103</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4193,7 +4193,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007155687484348262</v>
+        <v>0.007267744207638498</v>
       </c>
       <c r="C24">
         <v>12</v>
@@ -4214,28 +4214,28 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>155</v>
+        <v>271</v>
       </c>
       <c r="K24">
-        <v>0.002619146375060855</v>
+        <v>0.002638174850605436</v>
       </c>
       <c r="L24">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="M24">
+        <v>21</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>77</v>
-      </c>
-      <c r="N24">
-        <v>0.99</v>
-      </c>
-      <c r="O24">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24">
-        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4243,7 +4243,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006851049172147784</v>
+        <v>0.006958335316632207</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -4264,16 +4264,16 @@
         <v>1</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K25">
-        <v>0.002574595029156831</v>
+        <v>0.002638174850605436</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4293,7 +4293,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.006851049172147784</v>
+        <v>0.006958335316632207</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -4314,28 +4314,28 @@
         <v>1</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="K26">
-        <v>0.002533643024676503</v>
+        <v>0.002619146375060855</v>
       </c>
       <c r="L26">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="M26">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="N26">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O26">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>221</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4343,7 +4343,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.006851049172147784</v>
+        <v>0.006958335316632207</v>
       </c>
       <c r="C27">
         <v>11</v>
@@ -4364,28 +4364,28 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="K27">
-        <v>0.002519558841810913</v>
+        <v>0.002574595029156831</v>
       </c>
       <c r="L27">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4393,7 +4393,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006851049172147784</v>
+        <v>0.006958335316632207</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -4414,28 +4414,28 @@
         <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>274</v>
+        <v>130</v>
       </c>
       <c r="K28">
-        <v>0.002509404827035907</v>
+        <v>0.002533643024676503</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>17</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4443,7 +4443,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006851049172147784</v>
+        <v>0.006958335316632207</v>
       </c>
       <c r="C29">
         <v>11</v>
@@ -4464,28 +4464,28 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
       <c r="K29">
-        <v>0.002509404827035907</v>
+        <v>0.002519558841810913</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -4493,7 +4493,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.006197007142987957</v>
+        <v>0.006294051112022146</v>
       </c>
       <c r="C30">
         <v>9</v>
@@ -4514,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K30">
         <v>0.002509404827035907</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -4543,7 +4543,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.006197007142987957</v>
+        <v>0.006294051112022146</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -4564,16 +4564,16 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K31">
-        <v>0.002442475303404961</v>
+        <v>0.002509404827035907</v>
       </c>
       <c r="L31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4585,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -4593,7 +4593,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.006197007142987957</v>
+        <v>0.006294051112022146</v>
       </c>
       <c r="C32">
         <v>9</v>
@@ -4614,28 +4614,28 @@
         <v>1</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="K32">
-        <v>0.002410325605916429</v>
+        <v>0.002509404827035907</v>
       </c>
       <c r="L32">
-        <v>121</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="N32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>442</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -4643,7 +4643,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.006197007142987957</v>
+        <v>0.006294051112022146</v>
       </c>
       <c r="C33">
         <v>9</v>
@@ -4664,28 +4664,28 @@
         <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>141</v>
+        <v>277</v>
       </c>
       <c r="K33">
-        <v>0.002402675118015498</v>
+        <v>0.002442475303404961</v>
       </c>
       <c r="L33">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -4693,7 +4693,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005842594365157677</v>
+        <v>0.00593408829659412</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -4714,28 +4714,28 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="K34">
-        <v>0.002373659333083668</v>
+        <v>0.002410325605916429</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>71</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -4743,7 +4743,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005842594365157677</v>
+        <v>0.00593408829659412</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -4764,28 +4764,28 @@
         <v>5</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>279</v>
+        <v>139</v>
       </c>
       <c r="K35">
-        <v>0.002302787799891091</v>
+        <v>0.002402675118015498</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>209</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4793,7 +4793,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005465246591079008</v>
+        <v>0.005550831327180046</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -4814,16 +4814,16 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K36">
-        <v>0.002302787799891091</v>
+        <v>0.002373659333083668</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -4843,7 +4843,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005465246591079008</v>
+        <v>0.005550831327180046</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K37">
         <v>0.002302787799891091</v>
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -4893,7 +4893,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005465246591079008</v>
+        <v>0.005550831327180046</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -4914,16 +4914,16 @@
         <v>23</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K38">
-        <v>0.002229664699706953</v>
+        <v>0.002302787799891091</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -4943,7 +4943,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005465246591079008</v>
+        <v>0.005550831327180046</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -4964,16 +4964,16 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K39">
-        <v>0.002229664699706953</v>
+        <v>0.002302787799891091</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>61</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -4993,7 +4993,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005465246591079008</v>
+        <v>0.005550831327180046</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5014,28 +5014,28 @@
         <v>9</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="K40">
-        <v>0.002215710427617732</v>
+        <v>0.002229664699706953</v>
       </c>
       <c r="L40">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M40">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>264</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5043,7 +5043,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005465246591079008</v>
+        <v>0.005550831327180046</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5064,28 +5064,28 @@
         <v>3</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>143</v>
+        <v>283</v>
       </c>
       <c r="K41">
-        <v>0.002197636774340401</v>
+        <v>0.002229664699706953</v>
       </c>
       <c r="L41">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>13</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5093,7 +5093,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5114,28 +5114,28 @@
         <v>1</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K42">
-        <v>0.002193330662429173</v>
+        <v>0.002215710427617732</v>
       </c>
       <c r="L42">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="M42">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="N42">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5143,7 +5143,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5164,28 +5164,28 @@
         <v>74</v>
       </c>
       <c r="J43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K43">
+        <v>0.002197636774340401</v>
+      </c>
+      <c r="L43">
         <v>96</v>
       </c>
-      <c r="K43">
-        <v>0.002190627447985036</v>
-      </c>
-      <c r="L43">
-        <v>222</v>
-      </c>
       <c r="M43">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="N43">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="O43">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>102</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5193,7 +5193,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5214,28 +5214,28 @@
         <v>3</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="K44">
-        <v>0.002154060745408853</v>
+        <v>0.002193330662429173</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5243,7 +5243,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5264,28 +5264,28 @@
         <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="K45">
-        <v>0.002092168346095475</v>
+        <v>0.002154060745408853</v>
       </c>
       <c r="L45">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5293,7 +5293,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5314,28 +5314,28 @@
         <v>5</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>285</v>
+        <v>145</v>
       </c>
       <c r="K46">
-        <v>0.002075704872255059</v>
+        <v>0.002092168346095475</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5343,7 +5343,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5364,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K47">
         <v>0.002075704872255059</v>
@@ -5385,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5393,7 +5393,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5414,7 +5414,7 @@
         <v>13</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K48">
         <v>0.002075704872255059</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -5443,7 +5443,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -5464,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K49">
         <v>0.002075704872255059</v>
@@ -5485,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>293</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K50">
         <v>0.002075704872255059</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>115</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -5543,7 +5543,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.005059835144234363</v>
+        <v>0.005139071213150433</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -5564,16 +5564,16 @@
         <v>3</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K51">
-        <v>0.001994272734230561</v>
+        <v>0.002075704872255059</v>
       </c>
       <c r="L51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -5593,7 +5593,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004618976409590945</v>
+        <v>0.004691308713446554</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -5614,7 +5614,7 @@
         <v>25</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K52">
         <v>0.001994272734230561</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -5643,7 +5643,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004618976409590945</v>
+        <v>0.004691308713446554</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -5664,28 +5664,28 @@
         <v>27</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="K53">
-        <v>0.001967111860103263</v>
+        <v>0.001994272734230561</v>
       </c>
       <c r="L53">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="M53">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="N53">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -5693,7 +5693,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004618976409590945</v>
+        <v>0.004691308713446554</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -5714,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K54">
         <v>0.001932589606748777</v>
@@ -5743,7 +5743,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004618976409590945</v>
+        <v>0.004691308713446554</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -5764,7 +5764,7 @@
         <v>10</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K55">
         <v>0.001921171490860609</v>
@@ -5793,7 +5793,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004618976409590945</v>
+        <v>0.004691308713446554</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -5814,7 +5814,7 @@
         <v>35</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K56">
         <v>0.00191709220803933</v>
@@ -5843,7 +5843,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004618976409590945</v>
+        <v>0.004691308713446554</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -5893,7 +5893,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -5943,7 +5943,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -5993,7 +5993,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6043,7 +6043,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6093,7 +6093,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6143,7 +6143,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6193,7 +6193,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6214,7 +6214,7 @@
         <v>22</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K64">
         <v>0.001901733727471702</v>
@@ -6243,7 +6243,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6264,7 +6264,7 @@
         <v>34</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K65">
         <v>0.00189542220227256</v>
@@ -6293,7 +6293,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.004131338095325305</v>
+        <v>0.004196034074681431</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6314,7 +6314,7 @@
         <v>2</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K66">
         <v>0.001870332279775003</v>
@@ -6343,7 +6343,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003882651558385605</v>
+        <v>0.003943453153237542</v>
       </c>
       <c r="C67">
         <v>30</v>
@@ -6393,7 +6393,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6443,7 +6443,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6493,7 +6493,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -6543,7 +6543,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -6593,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -6643,7 +6643,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -6664,7 +6664,7 @@
         <v>20</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K73">
         <v>0.001794362912369974</v>
@@ -6693,7 +6693,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003577843742174131</v>
+        <v>0.003633872103819249</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -6714,7 +6714,7 @@
         <v>23</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K74">
         <v>0.001776138075389974</v>
@@ -6743,7 +6743,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003114783258150513</v>
+        <v>0.00316356017950588</v>
       </c>
       <c r="C75">
         <v>31</v>
@@ -6764,7 +6764,7 @@
         <v>1638</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K75">
         <v>0.001744171510237142</v>
@@ -6793,7 +6793,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -6843,7 +6843,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -6893,7 +6893,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -6943,7 +6943,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -6993,7 +6993,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7043,7 +7043,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7064,7 +7064,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K81">
         <v>0.001704056499179544</v>
@@ -7093,7 +7093,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7143,7 +7143,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7243,7 +7243,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7293,7 +7293,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7343,7 +7343,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002921297182578839</v>
+        <v>0.00296704414829706</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7393,7 +7393,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002346459759231372</v>
+        <v>0.00238320487876419</v>
       </c>
       <c r="C88">
         <v>7</v>
@@ -7443,7 +7443,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002245636335700175</v>
+        <v>0.002280802579339304</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -7493,7 +7493,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002219922178927209</v>
+        <v>0.002254685743696354</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -7543,25 +7543,25 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002110176793001029</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C91">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D91">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="E91">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>319</v>
@@ -7593,7 +7593,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>320</v>
@@ -7643,7 +7643,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>321</v>
@@ -7693,7 +7693,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -7711,10 +7711,10 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K94">
         <v>0.001603575445717761</v>
@@ -7743,7 +7743,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>322</v>
@@ -7793,7 +7793,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>323</v>
@@ -7843,7 +7843,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>324</v>
@@ -7893,7 +7893,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>325</v>
@@ -7943,7 +7943,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>326</v>
@@ -7993,7 +7993,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>327</v>
@@ -8043,7 +8043,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>328</v>
@@ -8093,7 +8093,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>329</v>
@@ -8143,7 +8143,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8161,10 +8161,10 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K103">
         <v>0.001513423668045321</v>
@@ -8193,7 +8193,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8211,10 +8211,10 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K104">
         <v>0.001479386424907954</v>
@@ -8243,7 +8243,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>330</v>
@@ -8293,7 +8293,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>331</v>
@@ -8343,7 +8343,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>332</v>
@@ -8393,7 +8393,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>333</v>
@@ -8443,7 +8443,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>334</v>
@@ -8493,7 +8493,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>335</v>
@@ -8543,7 +8543,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8561,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>336</v>
@@ -8593,7 +8593,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>337</v>
@@ -8643,7 +8643,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>338</v>
@@ -8693,7 +8693,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>339</v>
@@ -8743,7 +8743,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>340</v>
@@ -8793,7 +8793,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>341</v>
@@ -8843,7 +8843,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>342</v>
@@ -8893,7 +8893,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>343</v>
@@ -8943,7 +8943,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>344</v>
@@ -8993,7 +8993,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>345</v>
@@ -9043,7 +9043,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9061,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>346</v>
@@ -9093,7 +9093,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>347</v>
@@ -9143,7 +9143,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K123">
         <v>0.001375507874336356</v>
@@ -9193,7 +9193,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.002065669047662652</v>
+        <v>0.002098017037340715</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>348</v>
@@ -9243,25 +9243,25 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.002065669047662652</v>
+        <v>0.002020239403436127</v>
       </c>
       <c r="C125">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>349</v>
@@ -9293,25 +9293,25 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001989090617603386</v>
+        <v>0.002008782955078724</v>
       </c>
       <c r="C126">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D126">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E126">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>221</v>
+        <v>93</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>350</v>
@@ -9343,25 +9343,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001977810808933181</v>
+        <v>0.001850778072844323</v>
       </c>
       <c r="C127">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D127">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>93</v>
+        <v>3031</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>351</v>
@@ -9393,25 +9393,25 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001864327775222333</v>
+        <v>0.001774161303445726</v>
       </c>
       <c r="C128">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D128">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E128">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F128">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
       </c>
       <c r="H128">
-        <v>55</v>
+        <v>264</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>352</v>
@@ -9443,25 +9443,25 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001822242103435496</v>
+        <v>0.001700733214387669</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D129">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="E129">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F129">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
       </c>
       <c r="H129">
-        <v>3031</v>
+        <v>724</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>353</v>
@@ -9493,25 +9493,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00174680663925109</v>
+        <v>0.001646346086389593</v>
       </c>
       <c r="C130">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D130">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="E130">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F130">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
       </c>
       <c r="H130">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>354</v>
@@ -9543,25 +9543,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00167451069117409</v>
+        <v>0.001629550119977319</v>
       </c>
       <c r="C131">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D131">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G131" t="b">
         <v>1</v>
       </c>
       <c r="H131">
-        <v>724</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>355</v>
@@ -9593,25 +9593,25 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001620962123694727</v>
+        <v>0.00159708528055837</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132">
-        <v>194</v>
+        <v>125</v>
       </c>
       <c r="E132">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F132">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G132" t="b">
         <v>1</v>
       </c>
       <c r="H132">
-        <v>292</v>
+        <v>442</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>356</v>
@@ -9643,25 +9643,25 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00160442512360087</v>
+        <v>0.001596803149010748</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D133">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E133">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F133">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G133" t="b">
         <v>1</v>
       </c>
       <c r="H133">
-        <v>29</v>
+        <v>521</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>357</v>
@@ -9693,13 +9693,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001572460838882734</v>
+        <v>0.001473051150622753</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D134">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E134">
         <v>0.97</v>
@@ -9711,7 +9711,7 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>358</v>
@@ -9743,13 +9743,13 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001572183057341917</v>
+        <v>0.001445995918224207</v>
       </c>
       <c r="C135">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D135">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E135">
         <v>0.9399999999999999</v>
@@ -9761,7 +9761,7 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>521</v>
+        <v>111</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>359</v>
@@ -9793,13 +9793,13 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001450339112270576</v>
+        <v>0.001415780761843861</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E136">
         <v>0.97</v>
@@ -9811,7 +9811,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>360</v>
@@ -9843,25 +9843,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001423701027284462</v>
+        <v>0.001413626486954332</v>
       </c>
       <c r="C137">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D137">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E137">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F137">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
       </c>
       <c r="H137">
-        <v>111</v>
+        <v>229</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>361</v>
@@ -9893,13 +9893,13 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001393951739173685</v>
+        <v>0.001331075827153653</v>
       </c>
       <c r="C138">
         <v>3</v>
       </c>
       <c r="D138">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E138">
         <v>0.97</v>
@@ -9911,7 +9911,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>362</v>
@@ -9943,25 +9943,25 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001391830679677859</v>
+        <v>0.001259630886936496</v>
       </c>
       <c r="C139">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D139">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="E139">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F139">
-        <v>0.08999999999999997</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>363</v>
@@ -9993,13 +9993,13 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001310552815971599</v>
+        <v>0.001236858194751152</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E140">
         <v>0.97</v>
@@ -10011,7 +10011,7 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>222</v>
+        <v>85</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>364</v>
@@ -10043,19 +10043,19 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001240209439825447</v>
+        <v>0.001234359054421596</v>
       </c>
       <c r="C141">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E141">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F141">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
@@ -10093,25 +10093,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001217787865290076</v>
+        <v>0.001213200446893318</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>366</v>
@@ -10143,25 +10143,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001215327257614996</v>
+        <v>0.001184626891361688</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="E143">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F143">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>367</v>
@@ -10193,25 +10193,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001194494881192446</v>
+        <v>0.001177637015313915</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="E144">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F144">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>368</v>
@@ -10243,25 +10243,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00116636188313149</v>
+        <v>0.001172275070754209</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D145">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E145">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F145">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>369</v>
@@ -10293,13 +10293,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001159479779534665</v>
+        <v>0.001155980151388763</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E146">
         <v>0.97</v>
@@ -10311,7 +10311,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>370</v>
@@ -10343,25 +10343,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001154200507386186</v>
+        <v>0.001135362164428946</v>
       </c>
       <c r="C147">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D147">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E147">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F147">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>371</v>
@@ -10393,25 +10393,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001138156829013571</v>
+        <v>0.001094883866278667</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D148">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E148">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F148">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>372</v>
@@ -10443,28 +10443,28 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001117856737674947</v>
+        <v>0.001065603143719531</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D149">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E149">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F149">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K149">
         <v>0.001285908703152469</v>
@@ -10493,28 +10493,28 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001078002548646494</v>
+        <v>0.001022473519344405</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D150">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E150">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>82</v>
+        <v>1109</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K150">
         <v>0.001232569778191625</v>
@@ -10543,28 +10543,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001049173286916441</v>
+        <v>0.0009879477095037367</v>
       </c>
       <c r="C151">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D151">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E151">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F151">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K151">
         <v>0.001221058576089288</v>
@@ -10593,13 +10593,13 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001006708650775097</v>
+        <v>0.0009857662446360962</v>
       </c>
       <c r="C152">
         <v>3</v>
       </c>
       <c r="D152">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E152">
         <v>0.9399999999999999</v>
@@ -10611,10 +10611,10 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>1109</v>
+        <v>188</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K152">
         <v>0.001177516080333384</v>
@@ -10643,28 +10643,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.000972715172426726</v>
+        <v>0.0009766816986707704</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E153">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F153">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K153">
         <v>0.001175768196261004</v>
@@ -10693,13 +10693,13 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.000970567342177759</v>
+        <v>0.0009730326597760673</v>
       </c>
       <c r="C154">
         <v>3</v>
       </c>
       <c r="D154">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E154">
         <v>0.9399999999999999</v>
@@ -10711,7 +10711,7 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>373</v>
@@ -10743,13 +10743,13 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.0009616228650459487</v>
+        <v>0.0009704646106024327</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E155">
         <v>0.98</v>
@@ -10761,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>374</v>
@@ -10793,25 +10793,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.0009580300883599886</v>
+        <v>0.0009441540871907633</v>
       </c>
       <c r="C156">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>48</v>
       </c>
       <c r="E156">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F156">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>375</v>
@@ -10843,13 +10843,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.0009555016343024483</v>
+        <v>0.0009371850552802982</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E157">
         <v>0.98</v>
@@ -10861,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>376</v>
@@ -10893,25 +10893,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.0009295967761092195</v>
+        <v>0.0008831679496894482</v>
       </c>
       <c r="C158">
         <v>1</v>
       </c>
       <c r="D158">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>377</v>
@@ -10943,25 +10943,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.0009227351952672126</v>
+        <v>0.0008745908168746911</v>
       </c>
       <c r="C159">
         <v>1</v>
       </c>
       <c r="D159">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>378</v>
@@ -10993,13 +10993,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.0008695509450550331</v>
+        <v>0.0008473135289996132</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E160">
         <v>0.97</v>
@@ -11043,25 +11043,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.0008611060575933028</v>
+        <v>0.0008396729205465617</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>380</v>
@@ -11093,25 +11093,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.0008342493408627505</v>
+        <v>0.0008396729205465617</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>381</v>
@@ -11143,25 +11143,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0008267265380895263</v>
+        <v>0.0008067625872212282</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>382</v>
@@ -11193,25 +11193,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.0008267265380895263</v>
+        <v>0.0007871519817452667</v>
       </c>
       <c r="C164">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>383</v>
@@ -11243,25 +11243,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.0007943236282520683</v>
+        <v>0.0007475206271007146</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E165">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>384</v>
@@ -11293,25 +11293,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.0007750153862232222</v>
+        <v>0.0007272495559812318</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E166">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F166">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>385</v>
@@ -11343,13 +11343,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.0007359950822175126</v>
+        <v>0.0007060301765675491</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E167">
         <v>0.96</v>
@@ -11361,7 +11361,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>386</v>
@@ -11393,25 +11393,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.0007160365578446317</v>
+        <v>0.0007001720543147506</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D168">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E168">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F168">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>387</v>
@@ -11443,13 +11443,13 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.0006951443465397069</v>
+        <v>0.0006909707501604777</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E169">
         <v>0.96</v>
@@ -11461,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="H169">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>388</v>
@@ -11493,25 +11493,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.0006893765469462548</v>
+        <v>0.0006753285176249522</v>
       </c>
       <c r="C170">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D170">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E170">
-        <v>0.89</v>
+        <v>0.14</v>
       </c>
       <c r="F170">
-        <v>0.11</v>
+        <v>0.86</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>389</v>
@@ -11543,25 +11543,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0006803171118457168</v>
+        <v>0.000675210199112764</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>390</v>
@@ -11593,25 +11593,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0006649160569401129</v>
+        <v>0.000675210199112764</v>
       </c>
       <c r="C172">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E172">
-        <v>0.14</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.86</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>391</v>
@@ -11643,7 +11643,7 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.000664799562705775</v>
+        <v>0.000675210199112764</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -11661,7 +11661,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>392</v>
@@ -11693,13 +11693,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.000664799562705775</v>
+        <v>0.0006586866405021624</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E174">
         <v>0.95</v>
@@ -11711,7 +11711,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>393</v>
@@ -11743,25 +11743,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.000664799562705775</v>
+        <v>0.0006289123156145967</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>394</v>
@@ -11793,25 +11793,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0006485307703310367</v>
+        <v>0.0006289123156145967</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E176">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F176">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>395</v>
@@ -11843,25 +11843,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0006192155168127652</v>
+        <v>0.000603785103143335</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>396</v>
@@ -11893,25 +11893,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0006192155168127652</v>
+        <v>0.000603785103143335</v>
       </c>
       <c r="C178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D178">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E178">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>397</v>
@@ -11943,25 +11943,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0005944757248415244</v>
+        <v>0.0005966925185630408</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D179">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E179">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="F179">
-        <v>0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>398</v>
@@ -11993,13 +11993,13 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0005944757248415244</v>
+        <v>0.0005833995945321046</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E180">
         <v>0.9399999999999999</v>
@@ -12011,7 +12011,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>399</v>
@@ -12043,25 +12043,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0005874924963096849</v>
+        <v>0.0005833995945321046</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E181">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>400</v>
@@ -12093,25 +12093,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0005744045274157617</v>
+        <v>0.0005599461364791759</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E182">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F182">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>32</v>
+        <v>525</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>401</v>
@@ -12143,25 +12143,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0005744045274157617</v>
+        <v>0.0005387848349146237</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>402</v>
@@ -12193,25 +12193,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0005513126833085295</v>
+        <v>0.0005387848349146237</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E184">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F184">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>525</v>
+        <v>34</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>403</v>
@@ -12243,7 +12243,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0005304776543873358</v>
+        <v>0.0005387848349146237</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12261,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>404</v>
@@ -12293,25 +12293,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0005304776543873358</v>
+        <v>0.0005348977724083935</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E186">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F186">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>405</v>
@@ -12343,25 +12343,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0005304776543873358</v>
+        <v>0.0005348977724083935</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E187">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F187">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>406</v>
@@ -12393,25 +12393,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0005266505240244542</v>
+        <v>0.0005293694618304433</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D188">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>407</v>
@@ -12443,25 +12443,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0005266505240244542</v>
+        <v>0.0005278241757563606</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D189">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E189">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F189">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>408</v>
@@ -12493,25 +12493,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0005212074509495031</v>
+        <v>0.0005142430926492347</v>
       </c>
       <c r="C190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E190">
-        <v>0.87</v>
+        <v>0.93</v>
       </c>
       <c r="F190">
-        <v>0.13</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>409</v>
@@ -12543,25 +12543,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0005196859906580925</v>
+        <v>0.0004879547561106074</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D191">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="F191">
-        <v>0.15</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>410</v>
@@ -12593,25 +12593,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0005063143056294126</v>
+        <v>0.0004879547561106074</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E192">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F192">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>411</v>
@@ -12643,13 +12643,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0004804312922239487</v>
+        <v>0.0004596794364287069</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E193">
         <v>0.92</v>
@@ -12661,10 +12661,10 @@
         <v>1</v>
       </c>
       <c r="H193">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K193">
         <v>0.001133899071811269</v>
@@ -12693,28 +12693,28 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0004804312922239487</v>
+        <v>0.0004291265621530026</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K194">
         <v>0.001084255815233634</v>
@@ -12743,28 +12743,28 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0004525919317039305</v>
+        <v>0.0003959417102036333</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F195">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K195">
         <v>0.001059197992673573</v>
@@ -12793,28 +12793,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0004225101327551255</v>
+        <v>0.0003959417102036333</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F196">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K196">
         <v>0.00104591110224947</v>
@@ -12843,28 +12843,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0003898369369216127</v>
+        <v>0.0003596890595788026</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E197">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F197">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K197">
         <v>0.00103408911107538</v>
@@ -12893,25 +12893,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0003898369369216127</v>
+        <v>0.0003596890595788026</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F198">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>72</v>
+        <v>155</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>412</v>
@@ -12943,7 +12943,7 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0003541432428482983</v>
+        <v>0.0003596890595788026</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -12961,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>413</v>
@@ -12993,7 +12993,7 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0003541432428482983</v>
+        <v>0.0003596890595788026</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -13011,7 +13011,7 @@
         <v>1</v>
       </c>
       <c r="H200">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>414</v>
@@ -13043,7 +13043,7 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0003541432428482983</v>
+        <v>0.0003596890595788026</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -13061,7 +13061,7 @@
         <v>1</v>
       </c>
       <c r="H201">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>415</v>
@@ -13093,7 +13093,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0003541432428482983</v>
+        <v>0.0003596890595788026</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13111,7 +13111,7 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>416</v>
@@ -13143,25 +13143,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0003541432428482983</v>
+        <v>0.0003428334643507884</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D203">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E203">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F203">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>41</v>
+        <v>948</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>417</v>
@@ -13193,25 +13193,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0003541432428482983</v>
+        <v>0.0003198300471401485</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F204">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>418</v>
@@ -13243,25 +13243,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0003375475333174682</v>
+        <v>0.0002824886486751339</v>
       </c>
       <c r="C205">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F205">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>948</v>
+        <v>47</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>419</v>
@@ -13293,25 +13293,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0003148987911591496</v>
+        <v>0.0002824886486751339</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E206">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F206">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>420</v>
@@ -13343,7 +13343,7 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0002781331359558017</v>
+        <v>0.0002824886486751339</v>
       </c>
       <c r="C207">
         <v>2</v>
@@ -13361,7 +13361,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>421</v>
@@ -13393,25 +13393,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0002781331359558017</v>
+        <v>0.0002757017128218816</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E208">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F208">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>422</v>
@@ -13443,25 +13443,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0002781331359558017</v>
+        <v>0.0002757017128218816</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E209">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F209">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>423</v>
@@ -13493,7 +13493,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0002714508435477737</v>
+        <v>0.0002757017128218816</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -13511,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>424</v>
@@ -13543,7 +13543,7 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0002714508435477737</v>
+        <v>0.0002757017128218816</v>
       </c>
       <c r="C211">
         <v>1</v>
@@ -13561,7 +13561,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>425</v>
@@ -13593,25 +13593,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0002714508435477737</v>
+        <v>0.000242419867460119</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>426</v>
@@ -13643,25 +13643,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0002714508435477737</v>
+        <v>0.000242419867460119</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E213">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F213">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>427</v>
@@ -13693,25 +13693,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0002386821497815739</v>
+        <v>0.0002265113883203605</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E214">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F214">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>428</v>
@@ -13743,25 +13743,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0002386821497815739</v>
+        <v>0.0002265113883203605</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E215">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F215">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>429</v>
@@ -13793,7 +13793,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0002230189533587083</v>
+        <v>0.0002265113883203605</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -13811,7 +13811,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>430</v>
@@ -13843,7 +13843,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0002230189533587083</v>
+        <v>0.0002265113883203605</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -13861,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>431</v>
@@ -13893,7 +13893,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0002230189533587083</v>
+        <v>0.0002265113883203605</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -13911,7 +13911,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>432</v>
@@ -13943,25 +13943,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0002230189533587083</v>
+        <v>0.0002000704887672892</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F219">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>433</v>
@@ -13993,25 +13993,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0002230189533587083</v>
+        <v>0.0001714167321753942</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>434</v>
@@ -14043,25 +14043,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0001969857292108404</v>
+        <v>0.0001714167321753942</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E221">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F221">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>435</v>
@@ -14093,7 +14093,7 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0001687737666587341</v>
+        <v>0.0001714167321753942</v>
       </c>
       <c r="C222">
         <v>1</v>
@@ -14111,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="H222">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>436</v>
@@ -14143,7 +14143,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0001687737666587341</v>
+        <v>0.0001714167321753942</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14161,7 +14161,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>437</v>
@@ -14193,25 +14193,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0001687737666587341</v>
+        <v>0.0001555581703055738</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D224">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>438</v>
@@ -14243,25 +14243,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0001687737666587341</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E225">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F225">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>439</v>
@@ -14293,13 +14293,13 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0001531597178631851</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E226">
         <v>0.75</v>
@@ -14311,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>440</v>
@@ -14343,7 +14343,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14361,7 +14361,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>441</v>
@@ -14393,7 +14393,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>442</v>
@@ -14443,7 +14443,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14461,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>443</v>
@@ -14493,7 +14493,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -14511,7 +14511,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>444</v>
@@ -14543,7 +14543,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>445</v>
@@ -14593,7 +14593,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -14643,7 +14643,7 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.000108300275105677</v>
+        <v>0.0001099962370920436</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -14661,7 +14661,7 @@
         <v>1</v>
       </c>
       <c r="H233">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>447</v>
@@ -14693,25 +14693,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.000108300275105677</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F234">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>448</v>
@@ -14743,25 +14743,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.000108300275105677</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E235">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F235">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>449</v>
@@ -14793,7 +14793,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>4.408120323760691E-05</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -14811,7 +14811,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>450</v>
@@ -14843,7 +14843,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>4.408120323760691E-05</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -14861,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>451</v>
@@ -14893,7 +14893,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>4.408120323760691E-05</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -14911,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>452</v>
@@ -14943,7 +14943,7 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>4.408120323760691E-05</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C239">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>453</v>
@@ -14993,7 +14993,7 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>4.408120323760691E-05</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -15011,7 +15011,7 @@
         <v>1</v>
       </c>
       <c r="H240">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>454</v>
@@ -15043,7 +15043,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>4.408120323760691E-05</v>
+        <v>4.477150660877867E-05</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15061,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>455</v>
@@ -15093,25 +15093,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>4.408120323760691E-05</v>
+        <v>0</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E242">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F242">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>456</v>
@@ -15143,25 +15143,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>4.408120323760691E-05</v>
+        <v>0</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E243">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F243">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>457</v>
@@ -15211,7 +15211,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>458</v>
@@ -15261,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>459</v>
@@ -15361,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>461</v>
@@ -15411,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>462</v>
@@ -15461,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>463</v>
@@ -15511,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>464</v>
@@ -15561,7 +15561,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>465</v>
@@ -15611,7 +15611,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>466</v>
@@ -15661,7 +15661,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>467</v>
@@ -15689,30 +15689,6 @@
       </c>
     </row>
     <row r="254" spans="1:17">
-      <c r="A254" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254">
-        <v>2</v>
-      </c>
-      <c r="E254">
-        <v>0.5</v>
-      </c>
-      <c r="F254">
-        <v>0.5</v>
-      </c>
-      <c r="G254" t="b">
-        <v>1</v>
-      </c>
-      <c r="H254">
-        <v>462</v>
-      </c>
       <c r="J254" s="1" t="s">
         <v>468</v>
       </c>
@@ -15739,30 +15715,6 @@
       </c>
     </row>
     <row r="255" spans="1:17">
-      <c r="A255" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255">
-        <v>2</v>
-      </c>
-      <c r="E255">
-        <v>0.5</v>
-      </c>
-      <c r="F255">
-        <v>0.5</v>
-      </c>
-      <c r="G255" t="b">
-        <v>1</v>
-      </c>
-      <c r="H255">
-        <v>27</v>
-      </c>
       <c r="J255" s="1" t="s">
         <v>469</v>
       </c>
@@ -15894,7 +15846,7 @@
     </row>
     <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K260">
         <v>0.0009851885036861422</v>
@@ -15920,7 +15872,7 @@
     </row>
     <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K261">
         <v>0.0009359163569075034</v>
@@ -15946,7 +15898,7 @@
     </row>
     <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K262">
         <v>0.0009359163569075034</v>
@@ -15972,7 +15924,7 @@
     </row>
     <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K263">
         <v>0.0009291206224917123</v>
@@ -15998,7 +15950,7 @@
     </row>
     <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K264">
         <v>0.0008893156228851649</v>
@@ -16024,7 +15976,7 @@
     </row>
     <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K265">
         <v>0.0008490505722629641</v>
@@ -16050,7 +16002,7 @@
     </row>
     <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K266">
         <v>0.0008490505722629641</v>
@@ -16076,7 +16028,7 @@
     </row>
     <row r="267" spans="10:17">
       <c r="J267" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K267">
         <v>0.0008490505722629641</v>
@@ -19248,7 +19200,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K389">
         <v>0.0008083115247521584</v>
@@ -19274,7 +19226,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K390">
         <v>0.000719515342262886</v>
@@ -19300,7 +19252,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K391">
         <v>0.0006831117763798775</v>
@@ -19326,7 +19278,7 @@
     </row>
     <row r="392" spans="10:17">
       <c r="J392" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K392">
         <v>0.0006831117763798775</v>
@@ -19352,7 +19304,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K393">
         <v>0.0006403405905858551</v>
@@ -19378,7 +19330,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K394">
         <v>0.0006403405905858551</v>
@@ -19404,7 +19356,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K395">
         <v>0.0006032409461700997</v>
@@ -27412,7 +27364,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K703">
         <v>0.0005592032242738103</v>
@@ -27438,7 +27390,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K704">
         <v>0.0005592032242738103</v>
@@ -27464,7 +27416,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K705">
         <v>0.0005531772347198075</v>
@@ -27490,7 +27442,7 @@
     </row>
     <row r="706" spans="10:17">
       <c r="J706" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K706">
         <v>0.0005531772347198075</v>
@@ -27516,7 +27468,7 @@
     </row>
     <row r="707" spans="10:17">
       <c r="J707" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K707">
         <v>0.0005531772347198075</v>
@@ -27542,7 +27494,7 @@
     </row>
     <row r="708" spans="10:17">
       <c r="J708" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K708">
         <v>0.0005348605199053774</v>
@@ -27568,7 +27520,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K709">
         <v>0.0005087741776818457</v>
@@ -27620,7 +27572,7 @@
     </row>
     <row r="711" spans="10:17">
       <c r="J711" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K711">
         <v>0.0004638260072868392</v>
@@ -27646,7 +27598,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K712">
         <v>0.0004638260072868392</v>
@@ -27672,7 +27624,7 @@
     </row>
     <row r="713" spans="10:17">
       <c r="J713" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K713">
         <v>0.0004609485202208328</v>
@@ -27698,7 +27650,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K714">
         <v>0.000427922547243382</v>
@@ -27724,7 +27676,7 @@
     </row>
     <row r="715" spans="10:17">
       <c r="J715" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K715">
         <v>0.000427922547243382</v>
@@ -27750,7 +27702,7 @@
     </row>
     <row r="716" spans="10:17">
       <c r="J716" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K716">
         <v>0.0004183466895783647</v>
@@ -27776,7 +27728,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K717">
         <v>0.0004174381998091661</v>
@@ -27802,7 +27754,7 @@
     </row>
     <row r="718" spans="10:17">
       <c r="J718" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K718">
         <v>0.0003750577747586787</v>
@@ -27828,7 +27780,7 @@
     </row>
     <row r="719" spans="10:17">
       <c r="J719" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K719">
         <v>0.0003723662536104819</v>
@@ -27854,7 +27806,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K720">
         <v>0.0003473026670964147</v>
@@ -27880,7 +27832,7 @@
     </row>
     <row r="721" spans="10:17">
       <c r="J721" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K721">
         <v>0.0003259398244260553</v>
@@ -27906,7 +27858,7 @@
     </row>
     <row r="722" spans="10:17">
       <c r="J722" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K722">
         <v>0.0003259398244260553</v>
@@ -27932,7 +27884,7 @@
     </row>
     <row r="723" spans="10:17">
       <c r="J723" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K723">
         <v>0.0002791625391309946</v>
@@ -27958,7 +27910,7 @@
     </row>
     <row r="724" spans="10:17">
       <c r="J724" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K724">
         <v>0.0002791625391309946</v>
@@ -27984,7 +27936,7 @@
     </row>
     <row r="725" spans="10:17">
       <c r="J725" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K725">
         <v>0.0002791625391309946</v>
@@ -28010,7 +27962,7 @@
     </row>
     <row r="726" spans="10:17">
       <c r="J726" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K726">
         <v>0.0002791625391309946</v>
@@ -28036,7 +27988,7 @@
     </row>
     <row r="727" spans="10:17">
       <c r="J727" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K727">
         <v>0.0002791625391309946</v>
@@ -28062,7 +28014,7 @@
     </row>
     <row r="728" spans="10:17">
       <c r="J728" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K728">
         <v>0.0002791625391309946</v>
@@ -28088,7 +28040,7 @@
     </row>
     <row r="729" spans="10:17">
       <c r="J729" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K729">
         <v>0.0002321951798871181</v>
@@ -28114,7 +28066,7 @@
     </row>
     <row r="730" spans="10:17">
       <c r="J730" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K730">
         <v>0.0001881473565395988</v>
@@ -28140,7 +28092,7 @@
     </row>
     <row r="731" spans="10:17">
       <c r="J731" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K731">
         <v>0.0001853104912432514</v>
@@ -28166,7 +28118,7 @@
     </row>
     <row r="732" spans="10:17">
       <c r="J732" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K732">
         <v>0.0001853104912432514</v>
@@ -28192,7 +28144,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K733">
         <v>0.0001853104912432514</v>
@@ -28218,7 +28170,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K734">
         <v>0.0001853104912432514</v>
@@ -28244,7 +28196,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K735">
         <v>0.0001644342099232451</v>
@@ -28270,7 +28222,7 @@
     </row>
     <row r="736" spans="10:17">
       <c r="J736" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K736">
         <v>0.0001644342099232451</v>
@@ -28296,7 +28248,7 @@
     </row>
     <row r="737" spans="10:17">
       <c r="J737" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K737">
         <v>0.0001644342099232451</v>
@@ -28322,7 +28274,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K738">
         <v>0.0001389824496268629</v>
@@ -28348,7 +28300,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K739">
         <v>0.0001389824496268629</v>
@@ -28374,7 +28326,7 @@
     </row>
     <row r="740" spans="10:17">
       <c r="J740" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K740">
         <v>0.0001389824496268629</v>
@@ -28400,7 +28352,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K741">
         <v>0.0001389824496268629</v>
@@ -28426,7 +28378,7 @@
     </row>
     <row r="742" spans="10:17">
       <c r="J742" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K742">
         <v>0.0001389824496268629</v>
@@ -28452,7 +28404,7 @@
     </row>
     <row r="743" spans="10:17">
       <c r="J743" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K743">
         <v>0.0001330402716714735</v>
@@ -28478,7 +28430,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K744">
         <v>0.0001330402716714735</v>
@@ -28504,7 +28456,7 @@
     </row>
     <row r="745" spans="10:17">
       <c r="J745" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K745">
         <v>0.000102707456254654</v>
@@ -28530,7 +28482,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K746">
         <v>9.407367826979941E-05</v>
@@ -28556,7 +28508,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K747">
         <v>9.407367826979941E-05</v>
@@ -28582,7 +28534,7 @@
     </row>
     <row r="748" spans="10:17">
       <c r="J748" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K748">
         <v>9.407367826979941E-05</v>
@@ -28608,7 +28560,7 @@
     </row>
     <row r="749" spans="10:17">
       <c r="J749" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K749">
         <v>9.407367826979941E-05</v>
@@ -28634,7 +28586,7 @@
     </row>
     <row r="750" spans="10:17">
       <c r="J750" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K750">
         <v>7.565269125507605E-05</v>
@@ -28660,7 +28612,7 @@
     </row>
     <row r="751" spans="10:17">
       <c r="J751" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K751">
         <v>7.393300724107032E-05</v>
@@ -28686,7 +28638,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K752">
         <v>5.227853077367495E-05</v>
@@ -28712,7 +28664,7 @@
     </row>
     <row r="753" spans="10:17">
       <c r="J753" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K753">
         <v>5.227853077367495E-05</v>
@@ -28738,7 +28690,7 @@
     </row>
     <row r="754" spans="10:17">
       <c r="J754" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K754">
         <v>5.227853077367495E-05</v>
@@ -28764,7 +28716,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K755">
         <v>5.227853077367495E-05</v>
@@ -28790,7 +28742,7 @@
     </row>
     <row r="756" spans="10:17">
       <c r="J756" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K756">
         <v>5.227853077367495E-05</v>
@@ -28816,7 +28768,7 @@
     </row>
     <row r="757" spans="10:17">
       <c r="J757" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K757">
         <v>5.227853077367495E-05</v>
@@ -28842,7 +28794,7 @@
     </row>
     <row r="758" spans="10:17">
       <c r="J758" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K758">
         <v>5.227853077367495E-05</v>
@@ -28868,7 +28820,7 @@
     </row>
     <row r="759" spans="10:17">
       <c r="J759" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K759">
         <v>5.227853077367495E-05</v>
@@ -28894,7 +28846,7 @@
     </row>
     <row r="760" spans="10:17">
       <c r="J760" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K760">
         <v>5.227853077367495E-05</v>
@@ -28920,7 +28872,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K761">
         <v>1.737407231716025E-05</v>
@@ -28946,7 +28898,7 @@
     </row>
     <row r="762" spans="10:17">
       <c r="J762" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K762">
         <v>1.737407231716025E-05</v>
@@ -28972,7 +28924,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K763">
         <v>1.737407231716025E-05</v>
@@ -28998,7 +28950,7 @@
     </row>
     <row r="764" spans="10:17">
       <c r="J764" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K764">
         <v>1.737407231716025E-05</v>
@@ -29024,7 +28976,7 @@
     </row>
     <row r="765" spans="10:17">
       <c r="J765" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K765">
         <v>1.737407231716025E-05</v>
@@ -29050,7 +29002,7 @@
     </row>
     <row r="766" spans="10:17">
       <c r="J766" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K766">
         <v>1.737407231716025E-05</v>
@@ -29076,7 +29028,7 @@
     </row>
     <row r="767" spans="10:17">
       <c r="J767" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K767">
         <v>1.737407231716025E-05</v>
@@ -29102,7 +29054,7 @@
     </row>
     <row r="768" spans="10:17">
       <c r="J768" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K768">
         <v>1.737407231716025E-05</v>
@@ -29128,7 +29080,7 @@
     </row>
     <row r="769" spans="10:17">
       <c r="J769" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K769">
         <v>0</v>
@@ -29154,7 +29106,7 @@
     </row>
     <row r="770" spans="10:17">
       <c r="J770" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K770">
         <v>0</v>
@@ -29180,7 +29132,7 @@
     </row>
     <row r="771" spans="10:17">
       <c r="J771" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K771">
         <v>0</v>
@@ -29206,7 +29158,7 @@
     </row>
     <row r="772" spans="10:17">
       <c r="J772" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K772">
         <v>0</v>
@@ -29232,7 +29184,7 @@
     </row>
     <row r="773" spans="10:17">
       <c r="J773" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K773">
         <v>0</v>
@@ -29258,7 +29210,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K774">
         <v>0</v>
@@ -29284,7 +29236,7 @@
     </row>
     <row r="775" spans="10:17">
       <c r="J775" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K775">
         <v>0</v>
@@ -29310,7 +29262,7 @@
     </row>
     <row r="776" spans="10:17">
       <c r="J776" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K776">
         <v>0</v>
@@ -29336,7 +29288,7 @@
     </row>
     <row r="777" spans="10:17">
       <c r="J777" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K777">
         <v>0</v>
@@ -29362,7 +29314,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K778">
         <v>0</v>
@@ -29388,7 +29340,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K779">
         <v>0</v>
@@ -29414,7 +29366,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K780">
         <v>0</v>
